--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21AB288-BB52-6D4E-B181-C7530BA9E27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF67A624-7269-AF40-8180-88DA5406D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="5" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="29360" windowHeight="17860" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -2117,7 +2117,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J1046727"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
@@ -4575,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72AFE3-1E87-CF46-B503-516FB4ECE6EB}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A10" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4733,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D28A4-C67E-C24D-A558-9A5B7983454D}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="A11" sqref="A3:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6189,7 +6189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7A8281-D972-9C40-B8BE-DDDC2BD2A354}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF67A624-7269-AF40-8180-88DA5406D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B710BA74-76FB-B34D-BF80-8D458FEF1989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="29360" windowHeight="17860" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="4080" yWindow="760" windowWidth="29360" windowHeight="17860" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -589,6 +589,9 @@
     <t>Product containing only polyvalent crotalidae antivenom (medicinal product)oduct containing only polyvalent crotalidae antivenom (medicinal product)</t>
   </si>
   <si>
+    <t>Vaccine product containing only Rabies lyssavirus antigen (medicinal product)</t>
+  </si>
+  <si>
     <t>Anti-varicella human immunoglobulin</t>
   </si>
   <si>
@@ -692,9 +695,6 @@
   </si>
   <si>
     <t>BCG</t>
-  </si>
-  <si>
-    <t>accine product containing only Rabies lyssavirus antigen (medicinal product)</t>
   </si>
   <si>
     <t>Vacina raiva embrião de galinha</t>
@@ -2118,7 +2118,7 @@
   <dimension ref="A1:J1046727"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2222,10 +2222,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>396</v>
@@ -2408,7 +2408,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
       <c r="G10" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>178</v>
@@ -2473,7 +2473,7 @@
         <v>871726005</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
@@ -2534,10 +2534,10 @@
         <v>7</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>27</v>
@@ -2563,7 +2563,7 @@
         <v>221</v>
       </c>
       <c r="H15" s="58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I15" s="90" t="s">
         <v>396</v>
@@ -2656,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>22</v>
@@ -2752,10 +2752,10 @@
         <v>7</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>22</v>
@@ -2908,10 +2908,10 @@
         <v>7</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>22</v>
@@ -3226,7 +3226,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H36" s="60" t="s">
         <v>379</v>
@@ -3610,10 +3610,10 @@
         <v>7</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>22</v>
@@ -4077,7 +4077,7 @@
         <v>38</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>27</v>
@@ -4106,10 +4106,10 @@
         <v>7</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>27</v>
@@ -4138,10 +4138,10 @@
         <v>7</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>27</v>
@@ -4170,10 +4170,10 @@
         <v>7</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>27</v>
@@ -4202,10 +4202,10 @@
         <v>7</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>27</v>
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>27</v>
@@ -4330,10 +4330,10 @@
         <v>7</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>27</v>
@@ -4362,10 +4362,10 @@
         <v>7</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>27</v>
@@ -4394,10 +4394,10 @@
         <v>7</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H73" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>27</v>
@@ -4426,10 +4426,10 @@
         <v>7</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>27</v>
@@ -4458,10 +4458,10 @@
         <v>7</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>27</v>
@@ -4490,10 +4490,10 @@
         <v>7</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>27</v>
@@ -4522,10 +4522,10 @@
         <v>7</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>27</v>
@@ -4799,7 +4799,7 @@
         <v>179</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>180</v>
@@ -4819,13 +4819,13 @@
         <v>247</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F6" s="46">
         <v>3</v>
@@ -4842,13 +4842,13 @@
         <v>249</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>220</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F7" s="46">
         <v>4</v>
@@ -4883,13 +4883,13 @@
         <v>271</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>356</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9" s="46">
         <v>4</v>
@@ -4903,13 +4903,13 @@
         <v>310</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10" s="50">
         <v>774893001</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F10" s="46">
         <v>4</v>
@@ -4923,13 +4923,13 @@
         <v>350</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F11" s="46">
         <v>1</v>
@@ -5138,7 +5138,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
         <v>218</v>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B710BA74-76FB-B34D-BF80-8D458FEF1989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE443C28-0A4B-1D47-95F8-D86D5E1FE475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="760" windowWidth="29360" windowHeight="17860" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="1" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -1153,9 +1153,6 @@
     <t>(pentavalent) antivenom for Bothrops and Crotalus snake</t>
   </si>
   <si>
-    <t>pentavalent antivenom for Bothrops snakes and antilachetic snakes</t>
-  </si>
-  <si>
     <t>"trivalent antivenom for Loxosceles spiders</t>
   </si>
   <si>
@@ -1249,6 +1246,9 @@
   </si>
   <si>
     <t>Total Geral</t>
+  </si>
+  <si>
+    <t>pentavalent antivenom for  antilachetic snakes</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1598,24 +1598,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1629,9 +1611,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1652,9 +1631,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1681,14 +1657,14 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1709,9 +1685,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1730,7 +1703,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1739,7 +1712,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1775,10 +1748,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1796,8 +1766,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2117,7 +2108,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J1046727"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2138,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="62"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -2167,7 +2158,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="62"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2191,7 +2182,7 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -2215,22 +2206,22 @@
         <v>18</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="E4" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="9" t="s">
         <v>197</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="J4" s="87" t="s">
+        <v>395</v>
+      </c>
+      <c r="J4" s="77" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2241,7 +2232,7 @@
       <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -2298,35 +2289,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="27">
+    <row r="7" spans="1:10" s="23" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="28" t="s">
+      <c r="D7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2395,28 +2386,28 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="52">
+      <c r="A10" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="44">
         <v>15</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="31" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="89" t="s">
-        <v>395</v>
-      </c>
-      <c r="J10" s="67" t="s">
+      <c r="I10" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="J10" s="58" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2456,29 +2447,29 @@
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="44">
         <v>18</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="63">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="54">
         <v>871726005</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="24" t="s">
         <v>181</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2518,25 +2509,25 @@
       <c r="A14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="57">
         <v>22</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="31" t="s">
+      <c r="D14" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="24" t="s">
         <v>199</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -2550,25 +2541,25 @@
       <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="44">
         <v>23</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="57" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="90" t="s">
-        <v>396</v>
-      </c>
-      <c r="J15" s="91" t="s">
+      <c r="I15" s="80" t="s">
+        <v>395</v>
+      </c>
+      <c r="J15" s="81" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2604,35 +2595,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="34" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="26">
+    <row r="17" spans="1:10" s="27" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20">
         <v>25</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="32" t="s">
+      <c r="D17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2640,25 +2631,25 @@
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="44">
         <v>26</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="31" t="s">
+      <c r="D18" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="24" t="s">
         <v>201</v>
       </c>
       <c r="I18" s="7" t="s">
@@ -2739,22 +2730,22 @@
       <c r="B21" s="8">
         <v>30</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="31" t="s">
+      <c r="D21" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="24" t="s">
         <v>206</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -2864,27 +2855,27 @@
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="44">
         <v>36</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>376</v>
-      </c>
-      <c r="I25" s="90" t="s">
-        <v>395</v>
-      </c>
-      <c r="J25" s="67" t="s">
+      <c r="I25" s="80" t="s">
+        <v>394</v>
+      </c>
+      <c r="J25" s="58" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2892,25 +2883,25 @@
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="66">
+      <c r="B26" s="57">
         <v>37</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="31" t="s">
+      <c r="D26" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="24" t="s">
         <v>203</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -3034,10 +3025,10 @@
         <v>7</v>
       </c>
       <c r="G30" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>165</v>
@@ -3210,26 +3201,26 @@
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="44">
         <v>51</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="60" t="s">
+      <c r="D36" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="H36" s="60" t="s">
-        <v>379</v>
+      <c r="H36" s="24" t="s">
+        <v>378</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
@@ -3353,10 +3344,10 @@
       <c r="F40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="29" t="s">
         <v>103</v>
       </c>
       <c r="I40" s="7" t="s">
@@ -3594,25 +3585,25 @@
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="52">
+      <c r="B48" s="44">
         <v>66</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="37" t="s">
+      <c r="D48" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="30" t="s">
         <v>208</v>
       </c>
       <c r="I48" s="7" t="s">
@@ -3687,19 +3678,19 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="21">
+      <c r="A51" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="84">
         <v>70</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="23" t="s">
+      <c r="D51" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="86" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
@@ -3719,11 +3710,11 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="24"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="7" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3818,7 @@
         <v>98</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>22</v>
@@ -3904,25 +3895,25 @@
       <c r="A58" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="68">
+      <c r="B58" s="59">
         <v>76</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71" t="s">
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="H58" s="51" t="s">
         <v>377</v>
-      </c>
-      <c r="H58" s="59" t="s">
-        <v>378</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="J58" s="67" t="s">
+      <c r="J58" s="58" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4061,22 +4052,22 @@
       <c r="B63" s="8">
         <v>84</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="37" t="s">
+      <c r="D63" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="30" t="s">
         <v>209</v>
       </c>
       <c r="I63" s="7" t="s">
@@ -4093,22 +4084,22 @@
       <c r="B64" s="8">
         <v>85</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="37" t="s">
+      <c r="D64" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H64" s="30" t="s">
         <v>211</v>
       </c>
       <c r="I64" s="7" t="s">
@@ -4125,22 +4116,22 @@
       <c r="B65" s="8">
         <v>86</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="37" t="s">
+      <c r="D65" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="H65" s="30" t="s">
         <v>215</v>
       </c>
       <c r="I65" s="7" t="s">
@@ -4157,22 +4148,22 @@
       <c r="B66" s="8">
         <v>87</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="37" t="s">
+      <c r="D66" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="H66" s="37" t="s">
+      <c r="H66" s="30" t="s">
         <v>213</v>
       </c>
       <c r="I66" s="7" t="s">
@@ -4189,22 +4180,22 @@
       <c r="B67" s="8">
         <v>88</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="37" t="s">
+      <c r="D67" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="30" t="s">
         <v>211</v>
       </c>
       <c r="I67" s="7" t="s">
@@ -4221,22 +4212,22 @@
       <c r="B68" s="8">
         <v>89</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="37" t="s">
+      <c r="D68" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="H68" s="37" t="s">
+      <c r="H68" s="30" t="s">
         <v>211</v>
       </c>
       <c r="I68" s="7" t="s">
@@ -4253,23 +4244,23 @@
       <c r="B69" s="8">
         <v>92</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D69" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="H69" s="52" t="s">
-        <v>393</v>
+      <c r="D69" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="H69" s="44" t="s">
+        <v>392</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>22</v>
@@ -4317,22 +4308,22 @@
       <c r="B71" s="8">
         <v>95</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="37" t="s">
+      <c r="D71" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="H71" s="37" t="s">
+      <c r="H71" s="30" t="s">
         <v>211</v>
       </c>
       <c r="I71" s="7" t="s">
@@ -4349,22 +4340,22 @@
       <c r="B72" s="8">
         <v>96</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D72" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="37" t="s">
+      <c r="D72" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="H72" s="37" t="s">
+      <c r="H72" s="30" t="s">
         <v>215</v>
       </c>
       <c r="I72" s="7" t="s">
@@ -4381,22 +4372,22 @@
       <c r="B73" s="8">
         <v>97</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D73" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="37" t="s">
+      <c r="D73" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H73" s="30" t="s">
         <v>213</v>
       </c>
       <c r="I73" s="7" t="s">
@@ -4413,22 +4404,22 @@
       <c r="B74" s="8">
         <v>98</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D74" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="37" t="s">
+      <c r="D74" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="H74" s="37" t="s">
+      <c r="H74" s="30" t="s">
         <v>215</v>
       </c>
       <c r="I74" s="7" t="s">
@@ -4445,22 +4436,22 @@
       <c r="B75" s="8">
         <v>99</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="37" t="s">
+      <c r="D75" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="H75" s="37" t="s">
+      <c r="H75" s="30" t="s">
         <v>213</v>
       </c>
       <c r="I75" s="7" t="s">
@@ -4477,22 +4468,22 @@
       <c r="B76" s="8">
         <v>102</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="37" t="s">
+      <c r="D76" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="H76" s="37" t="s">
+      <c r="H76" s="30" t="s">
         <v>213</v>
       </c>
       <c r="I76" s="7" t="s">
@@ -4509,22 +4500,22 @@
       <c r="B77" s="8">
         <v>103</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="37" t="s">
+      <c r="D77" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="H77" s="37" t="s">
+      <c r="H77" s="30" t="s">
         <v>213</v>
       </c>
       <c r="I77" s="7" t="s">
@@ -4575,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72AFE3-1E87-CF46-B503-516FB4ECE6EB}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4585,17 +4576,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>380</v>
+      <c r="D2" s="52" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -4609,7 +4600,7 @@
         <v>354</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4646,7 +4637,7 @@
         <v>234</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -4674,7 +4665,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>12</v>
       </c>
@@ -4682,7 +4673,7 @@
         <v>171</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -4694,7 +4685,7 @@
         <v>172</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -4706,7 +4697,7 @@
         <v>173</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -4718,14 +4709,15 @@
         <v>174</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4733,15 +4725,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D28A4-C67E-C24D-A558-9A5B7983454D}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
       <selection activeCell="A11" sqref="A3:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="40" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
@@ -4749,62 +4741,62 @@
   <sheetData>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="34" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="81">
+      <c r="A4" s="72">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="82" t="s">
-        <v>385</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>384</v>
-      </c>
-      <c r="F4" s="81">
+      <c r="F4" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A5" s="43">
+      <c r="A5" s="35">
         <v>16</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="36">
         <v>1</v>
       </c>
       <c r="G5" t="s">
@@ -4812,22 +4804,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
-        <v>19</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="39">
+        <v>19</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="38">
         <v>3</v>
       </c>
       <c r="G6" t="s">
@@ -4835,22 +4827,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="43">
-        <v>20</v>
-      </c>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="35">
+        <v>20</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="38">
         <v>4</v>
       </c>
       <c r="G7" t="s">
@@ -4858,91 +4850,91 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="43">
+      <c r="A8" s="35">
         <v>27</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="43">
+      <c r="A9" s="35">
         <v>38</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+      <c r="A10" s="35">
         <v>69</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="42">
         <v>774893001</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="43">
+      <c r="A11" s="35">
         <v>101</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="40"/>
-      <c r="D18" s="51"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="43"/>
+      <c r="F18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6143,42 +6135,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="160" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6199,99 +6191,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" s="73" t="s">
+      <c r="A2" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="65" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="75">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="67">
         <v>10</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="68">
         <f>B3/B8</f>
         <v>0.10989010989010989</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="75">
+      <c r="A4" s="66">
         <v>2</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="67">
         <v>30</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="68">
         <f>B4/91</f>
         <v>0.32967032967032966</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="75">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="67">
         <v>0</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="68">
         <f t="shared" ref="C5:C7" si="0">B5/91</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="75">
+      <c r="A6" s="66">
         <v>4</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="67">
         <v>33</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="68">
         <f t="shared" si="0"/>
         <v>0.36263736263736263</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="75">
-        <v>5</v>
-      </c>
-      <c r="B7" s="76">
+      <c r="A7" s="66">
+        <v>5</v>
+      </c>
+      <c r="B7" s="67">
         <v>18</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="68">
         <f t="shared" si="0"/>
         <v>0.19780219780219779</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="70">
         <f>SUM(B3:B7)</f>
         <v>91</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B10" s="85">
+        <v>393</v>
+      </c>
+      <c r="B10" s="75">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11">
         <f>B8+12</f>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE443C28-0A4B-1D47-95F8-D86D5E1FE475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63690AF0-A7D5-634C-B509-519944C31FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="1" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="880" yWindow="800" windowWidth="29360" windowHeight="17860" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -2108,8 +2108,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J1046727"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4566,7 +4566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72AFE3-1E87-CF46-B503-516FB4ECE6EB}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63690AF0-A7D5-634C-B509-519944C31FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410B30C-8245-0542-BAAD-A7309444B207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="800" windowWidth="29360" windowHeight="17860" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="2" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Statistics" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$I$1:$I$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$I$1:$I$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="495">
   <si>
     <t>Nome Organização Source</t>
   </si>
@@ -703,9 +703,6 @@
     <t>Vacina BCG</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>122450004</t>
   </si>
   <si>
@@ -1111,9 +1108,6 @@
     <t>arachnid antivenom</t>
   </si>
   <si>
-    <t xml:space="preserve">21252703004 </t>
-  </si>
-  <si>
     <t>774893001</t>
   </si>
   <si>
@@ -1211,9 +1205,6 @@
   </si>
   <si>
     <t>Latrodectus antivenom</t>
-  </si>
-  <si>
-    <t>871886002</t>
   </si>
   <si>
     <t>Vaccine product containing only Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and Hepatitis B virus antigens (medicinal product)</t>
@@ -1249,13 +1240,304 @@
   </si>
   <si>
     <t>pentavalent antivenom for  antilachetic snakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pneumococcal 10-valent conjugate vaccine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Measles and rubella vaccine</t>
+  </si>
+  <si>
+    <t>Anti-tetanus human immunoglobulin</t>
+  </si>
+  <si>
+    <t>tetanus serum</t>
+  </si>
+  <si>
+    <t>antiarachnidic serum</t>
+  </si>
+  <si>
+    <t>anti-scorpion serum</t>
+  </si>
+  <si>
+    <t>Diphtheria and childhood tetanus vaccine</t>
+  </si>
+  <si>
+    <t>antielapidic serum</t>
+  </si>
+  <si>
+    <t>Antibotropic serum (pentavalent)</t>
+  </si>
+  <si>
+    <t>hepatitis B vaccine</t>
+  </si>
+  <si>
+    <t>antidiphtheria serum</t>
+  </si>
+  <si>
+    <t>Antibothropic (pentavalent) and anticrotalic serum</t>
+  </si>
+  <si>
+    <t>Antibothropic (pentavalent) and antilaquetic serum</t>
+  </si>
+  <si>
+    <t>AC meningococcal vaccine</t>
+  </si>
+  <si>
+    <t>yellow fever vaccine</t>
+  </si>
+  <si>
+    <t>BCG vaccine</t>
+  </si>
+  <si>
+    <t>Hib vaccine</t>
+  </si>
+  <si>
+    <t>Chicken embryo rabies vaccine</t>
+  </si>
+  <si>
+    <t>pneumo 23 vaccine</t>
+  </si>
+  <si>
+    <t>injectable polio vaccine</t>
+  </si>
+  <si>
+    <t>Human rabies immunoglobulin</t>
+  </si>
+  <si>
+    <t>Measles, mumps, rubella vaccine</t>
+  </si>
+  <si>
+    <t>Diphtheria and adult tetanus vaccine</t>
+  </si>
+  <si>
+    <t>pneumo 10 vaccine</t>
+  </si>
+  <si>
+    <t>latrodectus serum</t>
+  </si>
+  <si>
+    <t>oral polio vaccine</t>
+  </si>
+  <si>
+    <t>Penta acellular vaccine (DTPa/VIP/Hib)</t>
+  </si>
+  <si>
+    <t>typhoid vaccine</t>
+  </si>
+  <si>
+    <t>Antiloxoscelic serum (trivalent)</t>
+  </si>
+  <si>
+    <t>antilonomic serum</t>
+  </si>
+  <si>
+    <t>trivalent influenza vaccine</t>
+  </si>
+  <si>
+    <t>chickenpox vaccine</t>
+  </si>
+  <si>
+    <t>hepatitis A vaccine</t>
+  </si>
+  <si>
+    <t>Measles, rubella vaccine</t>
+  </si>
+  <si>
+    <t>Rabies vaccine in vero cell culture</t>
+  </si>
+  <si>
+    <t>DTP/Hib vaccine</t>
+  </si>
+  <si>
+    <t>7V pneumococcal vaccine</t>
+  </si>
+  <si>
+    <t>Meningo C vaccine</t>
+  </si>
+  <si>
+    <t>Penta vaccine (DTP/HepB/Hib)</t>
+  </si>
+  <si>
+    <t>Hexa vaccine (DTPa/HepB/VIP/Hib)</t>
+  </si>
+  <si>
+    <t>H1N1 Influenza Vaccine</t>
+  </si>
+  <si>
+    <t>rotavirus vaccine</t>
+  </si>
+  <si>
+    <t>DTP vaccine</t>
+  </si>
+  <si>
+    <t>Children's DTPa vaccine</t>
+  </si>
+  <si>
+    <t>Diluent for measles, mumps, rubella vaccine</t>
+  </si>
+  <si>
+    <t>Diluent for yellow fever vaccine</t>
+  </si>
+  <si>
+    <t>Diluent for haemophilus influenzae B vaccine</t>
+  </si>
+  <si>
+    <t>Typhoid vaccine (attenuated)</t>
+  </si>
+  <si>
+    <t>AC meningo thinner</t>
+  </si>
+  <si>
+    <t>Diluent for measles, rubella vaccine</t>
+  </si>
+  <si>
+    <t>Chickenpox vaccine diluent</t>
+  </si>
+  <si>
+    <t>Children's hepatitis A vaccine</t>
+  </si>
+  <si>
+    <t>Measles, mumps, rubella and chickenpox vaccine</t>
+  </si>
+  <si>
+    <t>adult Tpa vaccine</t>
+  </si>
+  <si>
+    <t>DTPa/VIP vaccine</t>
+  </si>
+  <si>
+    <t>pneumo 13 vaccine</t>
+  </si>
+  <si>
+    <t>bivalent HPV vaccine</t>
+  </si>
+  <si>
+    <t>tetanus toxoid vaccine</t>
+  </si>
+  <si>
+    <t>Hepatitis A and B (pediatric)</t>
+  </si>
+  <si>
+    <t>Hepatitis AeB vaccine (adult use)</t>
+  </si>
+  <si>
+    <t>Influenza Vaccine ID</t>
+  </si>
+  <si>
+    <t>pentavalent rotavirus vaccine</t>
+  </si>
+  <si>
+    <t>B/C meningococcal vaccine</t>
+  </si>
+  <si>
+    <t>quadrivalent HPV vaccine</t>
+  </si>
+  <si>
+    <t>measles vaccine</t>
+  </si>
+  <si>
+    <t>rubella vaccine</t>
+  </si>
+  <si>
+    <t>flu vaccine</t>
+  </si>
+  <si>
+    <t>quadruple viral vaccine</t>
+  </si>
+  <si>
+    <t>ACWY meningo vaccine</t>
+  </si>
+  <si>
+    <t>cholera vaccine</t>
+  </si>
+  <si>
+    <t>herpes zoster vaccine</t>
+  </si>
+  <si>
+    <t>tetravalent influenza vaccine</t>
+  </si>
+  <si>
+    <t>meningo B vaccine</t>
+  </si>
+  <si>
+    <t>Diluent for BCG vaccine</t>
+  </si>
+  <si>
+    <t>Diluent for rabies vaccine Vero cell culture</t>
+  </si>
+  <si>
+    <t>Diluent for meningo C vaccine</t>
+  </si>
+  <si>
+    <t>dengue vaccine</t>
+  </si>
+  <si>
+    <t>adult hepatitis A vaccine</t>
+  </si>
+  <si>
+    <t>Fractionated yellow fever vaccine</t>
+  </si>
+  <si>
+    <t>Covid-19 Vaccine ASTRAZENECA/FIOCRUZ - COVISHIELD, recombinant</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine SINOVAC/BUTANTAN - CORONAVAC, inactivated</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine PFIZER - COMIRNATY, mRNA</t>
+  </si>
+  <si>
+    <t>JANSSEN COVID-19 vaccine - Ad26.COV2.S, recombinant</t>
+  </si>
+  <si>
+    <t>ASTRAZENECA COVID-19 vaccine - ChAdOx1-S, recombinant</t>
+  </si>
+  <si>
+    <t>Diluent for measles, mumps, rubella and chickenpox vaccine</t>
+  </si>
+  <si>
+    <t>Diluent for rabies vaccine chicken embryo culture</t>
+  </si>
+  <si>
+    <t>Rabies vaccine Vero cell culture</t>
+  </si>
+  <si>
+    <t>nine-valent HPV vaccine</t>
+  </si>
+  <si>
+    <t>Covid-19 thinner</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine GAMALEYA - SPUTNIK V recombinant</t>
+  </si>
+  <si>
+    <t>Covid-19 vaccine COVID-19 BHARAT - COVAXIN inactivated</t>
+  </si>
+  <si>
+    <t>MODERN mRNA COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine SINOVAC - CORONAVAC inactivated</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine PFIZER - PEDIATRIC COMIRNATY, mRNA</t>
+  </si>
+  <si>
+    <t>Bavarian Nordic Smallpox Vaccine</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine PFIZER - PEDIATRIC COMIRNATY UNDER 5 YEARS, mRNA</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine PFIZER - COMIRNATY BIVALENT, mRNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1361,6 +1643,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1542,7 +1830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1604,12 +1892,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1633,17 +1915,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1671,50 +1947,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1769,6 +2009,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1789,6 +2032,83 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2105,11 +2425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J1046727"/>
+  <dimension ref="A1:IG1046725"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A50" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2123,7 +2442,7 @@
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:241" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2138,12 +2457,12 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="53"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:241" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2158,12 +2477,12 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="53"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:241" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2501,7 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -2195,7 +2514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:241" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2206,10 +2525,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="60" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -2219,13 +2538,13 @@
         <v>197</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="J4" s="77" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:241" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:241" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2289,39 +2608,270 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="23" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:241" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="77">
         <v>10</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="91"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="91"/>
+      <c r="BD7" s="91"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="91"/>
+      <c r="BG7" s="91"/>
+      <c r="BH7" s="91"/>
+      <c r="BI7" s="91"/>
+      <c r="BJ7" s="91"/>
+      <c r="BK7" s="91"/>
+      <c r="BL7" s="91"/>
+      <c r="BM7" s="91"/>
+      <c r="BN7" s="91"/>
+      <c r="BO7" s="91"/>
+      <c r="BP7" s="91"/>
+      <c r="BQ7" s="91"/>
+      <c r="BR7" s="91"/>
+      <c r="BS7" s="91"/>
+      <c r="BT7" s="91"/>
+      <c r="BU7" s="91"/>
+      <c r="BV7" s="91"/>
+      <c r="BW7" s="91"/>
+      <c r="BX7" s="91"/>
+      <c r="BY7" s="91"/>
+      <c r="BZ7" s="91"/>
+      <c r="CA7" s="91"/>
+      <c r="CB7" s="91"/>
+      <c r="CC7" s="91"/>
+      <c r="CD7" s="91"/>
+      <c r="CE7" s="91"/>
+      <c r="CF7" s="91"/>
+      <c r="CG7" s="91"/>
+      <c r="CH7" s="91"/>
+      <c r="CI7" s="91"/>
+      <c r="CJ7" s="91"/>
+      <c r="CK7" s="91"/>
+      <c r="CL7" s="91"/>
+      <c r="CM7" s="91"/>
+      <c r="CN7" s="91"/>
+      <c r="CO7" s="91"/>
+      <c r="CP7" s="91"/>
+      <c r="CQ7" s="91"/>
+      <c r="CR7" s="91"/>
+      <c r="CS7" s="91"/>
+      <c r="CT7" s="91"/>
+      <c r="CU7" s="91"/>
+      <c r="CV7" s="91"/>
+      <c r="CW7" s="91"/>
+      <c r="CX7" s="91"/>
+      <c r="CY7" s="91"/>
+      <c r="CZ7" s="91"/>
+      <c r="DA7" s="91"/>
+      <c r="DB7" s="91"/>
+      <c r="DC7" s="91"/>
+      <c r="DD7" s="91"/>
+      <c r="DE7" s="91"/>
+      <c r="DF7" s="91"/>
+      <c r="DG7" s="91"/>
+      <c r="DH7" s="91"/>
+      <c r="DI7" s="91"/>
+      <c r="DJ7" s="91"/>
+      <c r="DK7" s="91"/>
+      <c r="DL7" s="91"/>
+      <c r="DM7" s="91"/>
+      <c r="DN7" s="91"/>
+      <c r="DO7" s="91"/>
+      <c r="DP7" s="91"/>
+      <c r="DQ7" s="91"/>
+      <c r="DR7" s="91"/>
+      <c r="DS7" s="91"/>
+      <c r="DT7" s="91"/>
+      <c r="DU7" s="91"/>
+      <c r="DV7" s="91"/>
+      <c r="DW7" s="91"/>
+      <c r="DX7" s="91"/>
+      <c r="DY7" s="91"/>
+      <c r="DZ7" s="91"/>
+      <c r="EA7" s="91"/>
+      <c r="EB7" s="91"/>
+      <c r="EC7" s="91"/>
+      <c r="ED7" s="91"/>
+      <c r="EE7" s="91"/>
+      <c r="EF7" s="91"/>
+      <c r="EG7" s="91"/>
+      <c r="EH7" s="91"/>
+      <c r="EI7" s="91"/>
+      <c r="EJ7" s="91"/>
+      <c r="EK7" s="91"/>
+      <c r="EL7" s="91"/>
+      <c r="EM7" s="91"/>
+      <c r="EN7" s="91"/>
+      <c r="EO7" s="91"/>
+      <c r="EP7" s="91"/>
+      <c r="EQ7" s="91"/>
+      <c r="ER7" s="91"/>
+      <c r="ES7" s="91"/>
+      <c r="ET7" s="91"/>
+      <c r="EU7" s="91"/>
+      <c r="EV7" s="91"/>
+      <c r="EW7" s="91"/>
+      <c r="EX7" s="91"/>
+      <c r="EY7" s="91"/>
+      <c r="EZ7" s="91"/>
+      <c r="FA7" s="91"/>
+      <c r="FB7" s="91"/>
+      <c r="FC7" s="91"/>
+      <c r="FD7" s="91"/>
+      <c r="FE7" s="91"/>
+      <c r="FF7" s="91"/>
+      <c r="FG7" s="91"/>
+      <c r="FH7" s="91"/>
+      <c r="FI7" s="91"/>
+      <c r="FJ7" s="91"/>
+      <c r="FK7" s="91"/>
+      <c r="FL7" s="91"/>
+      <c r="FM7" s="91"/>
+      <c r="FN7" s="91"/>
+      <c r="FO7" s="91"/>
+      <c r="FP7" s="91"/>
+      <c r="FQ7" s="91"/>
+      <c r="FR7" s="91"/>
+      <c r="FS7" s="91"/>
+      <c r="FT7" s="91"/>
+      <c r="FU7" s="91"/>
+      <c r="FV7" s="91"/>
+      <c r="FW7" s="91"/>
+      <c r="FX7" s="91"/>
+      <c r="FY7" s="91"/>
+      <c r="FZ7" s="91"/>
+      <c r="GA7" s="91"/>
+      <c r="GB7" s="91"/>
+      <c r="GC7" s="91"/>
+      <c r="GD7" s="91"/>
+      <c r="GE7" s="91"/>
+      <c r="GF7" s="91"/>
+      <c r="GG7" s="91"/>
+      <c r="GH7" s="91"/>
+      <c r="GI7" s="91"/>
+      <c r="GJ7" s="91"/>
+      <c r="GK7" s="91"/>
+      <c r="GL7" s="91"/>
+      <c r="GM7" s="91"/>
+      <c r="GN7" s="91"/>
+      <c r="GO7" s="91"/>
+      <c r="GP7" s="91"/>
+      <c r="GQ7" s="91"/>
+      <c r="GR7" s="91"/>
+      <c r="GS7" s="91"/>
+      <c r="GT7" s="91"/>
+      <c r="GU7" s="91"/>
+      <c r="GV7" s="91"/>
+      <c r="GW7" s="91"/>
+      <c r="GX7" s="91"/>
+      <c r="GY7" s="91"/>
+      <c r="GZ7" s="91"/>
+      <c r="HA7" s="91"/>
+      <c r="HB7" s="91"/>
+      <c r="HC7" s="91"/>
+      <c r="HD7" s="91"/>
+      <c r="HE7" s="91"/>
+      <c r="HF7" s="91"/>
+      <c r="HG7" s="91"/>
+      <c r="HH7" s="91"/>
+      <c r="HI7" s="91"/>
+      <c r="HJ7" s="91"/>
+      <c r="HK7" s="91"/>
+      <c r="HL7" s="91"/>
+      <c r="HM7" s="91"/>
+      <c r="HN7" s="91"/>
+      <c r="HO7" s="91"/>
+      <c r="HP7" s="91"/>
+      <c r="HQ7" s="91"/>
+      <c r="HR7" s="91"/>
+      <c r="HS7" s="91"/>
+      <c r="HT7" s="91"/>
+      <c r="HU7" s="91"/>
+      <c r="HV7" s="91"/>
+      <c r="HW7" s="91"/>
+      <c r="HX7" s="91"/>
+      <c r="HY7" s="91"/>
+      <c r="HZ7" s="91"/>
+      <c r="IA7" s="91"/>
+      <c r="IB7" s="91"/>
+      <c r="IC7" s="91"/>
+      <c r="ID7" s="91"/>
+      <c r="IE7" s="91"/>
+      <c r="IF7" s="91"/>
+      <c r="IG7" s="91"/>
+    </row>
+    <row r="8" spans="1:241" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -2353,7 +2903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:241" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -2385,33 +2935,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="44">
+    <row r="10" spans="1:241" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="77">
         <v>15</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="24" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="79" t="s">
-        <v>394</v>
-      </c>
-      <c r="J10" s="58" t="s">
+      <c r="I10" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J10" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:241" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -2443,27 +2993,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:241" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="20">
         <v>18</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="93"/>
+      <c r="E12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="94">
         <v>871726005</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="27" t="s">
         <v>181</v>
       </c>
       <c r="I12" s="7" t="s">
@@ -2473,7 +3023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:241" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2505,29 +3055,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:241" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="73">
         <v>22</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="27" t="s">
         <v>199</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -2537,33 +3087,33 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:241" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="20">
         <v>23</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H15" s="50" t="s">
+      <c r="C15" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="80" t="s">
-        <v>395</v>
-      </c>
-      <c r="J15" s="81" t="s">
+      <c r="I15" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="63" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:241" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2595,7 +3145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="27" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
@@ -2614,10 +3164,10 @@
       <c r="F17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="24" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="20" t="s">
@@ -2627,30 +3177,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="44">
-        <v>26</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="44" t="s">
+      <c r="B18" s="8">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>201</v>
+      <c r="G18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>22</v>
@@ -2659,15 +3209,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
@@ -2679,10 +3229,10 @@
         <v>7</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>22</v>
@@ -2691,79 +3241,79 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="8">
-        <v>29</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>60</v>
+      <c r="G20" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="102" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="8">
-        <v>30</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>206</v>
+      <c r="G21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>19</v>
@@ -2775,27 +3325,27 @@
         <v>7</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>19</v>
@@ -2807,102 +3357,106 @@
         <v>7</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>165</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="73">
+        <v>37</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="8">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="7" t="s">
+    <row r="25" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>39</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="44">
-        <v>36</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>394</v>
-      </c>
-      <c r="J25" s="58" t="s">
+      <c r="G25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="57">
-        <v>37</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="57" t="s">
+    <row r="26" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8">
+        <v>40</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>203</v>
+      <c r="G26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>22</v>
@@ -2911,15 +3465,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>19</v>
@@ -2930,60 +3484,58 @@
       <c r="F27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="G27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>78</v>
+      <c r="G28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>19</v>
@@ -2995,10 +3547,10 @@
         <v>7</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>22</v>
@@ -3007,45 +3559,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>390</v>
+      <c r="G30" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>165</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="119" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>19</v>
@@ -3057,59 +3611,59 @@
         <v>7</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>164</v>
+      <c r="G32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>19</v>
@@ -3121,48 +3675,48 @@
         <v>7</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="8">
-        <v>46</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="20">
+        <v>51</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>91</v>
+      <c r="G34" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -3170,10 +3724,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>19</v>
@@ -3185,10 +3739,10 @@
         <v>7</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>27</v>
@@ -3197,36 +3751,36 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="44">
-        <v>51</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="44" t="s">
+      <c r="B36" s="8">
+        <v>56</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>27</v>
+      <c r="G36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" t="s">
+        <v>165</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -3234,10 +3788,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
@@ -3249,10 +3803,10 @@
         <v>7</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>27</v>
@@ -3261,33 +3815,33 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" t="s">
-        <v>165</v>
+      <c r="G38" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>23</v>
@@ -3298,10 +3852,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>19</v>
@@ -3313,27 +3867,27 @@
         <v>7</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="85" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>19</v>
@@ -3344,28 +3898,28 @@
       <c r="F40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>103</v>
+      <c r="G40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="102" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>19</v>
@@ -3377,10 +3931,10 @@
         <v>7</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>22</v>
@@ -3394,10 +3948,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>19</v>
@@ -3409,10 +3963,10 @@
         <v>7</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>27</v>
@@ -3421,15 +3975,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>19</v>
@@ -3441,16 +3995,16 @@
         <v>7</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -3458,10 +4012,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
@@ -3473,10 +4027,10 @@
         <v>7</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>27</v>
@@ -3490,10 +4044,10 @@
         <v>5</v>
       </c>
       <c r="B45" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>19</v>
@@ -3505,10 +4059,10 @@
         <v>7</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>27</v>
@@ -3517,36 +4071,36 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="8">
-        <v>64</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="B46" s="20">
+        <v>66</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>65</v>
+      <c r="G46" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -3554,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -3569,10 +4123,10 @@
         <v>7</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>27</v>
@@ -3581,148 +4135,148 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="44">
-        <v>66</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="44" t="s">
+      <c r="B48" s="8">
+        <v>68</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>208</v>
+      <c r="G48" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="8">
-        <v>67</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="67">
+        <v>70</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="69" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="8">
-        <v>68</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="66"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="84">
-        <v>70</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="8">
+        <v>71</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="86" t="s">
+      <c r="E51" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>123</v>
+      <c r="G51" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="87"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8">
+        <v>72</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F52" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>22</v>
@@ -3731,15 +4285,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="8">
-        <v>71</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>126</v>
+      <c r="B53" s="7">
+        <v>73</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>19</v>
@@ -3750,28 +4304,28 @@
       <c r="F53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>128</v>
+      <c r="G53" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>19</v>
@@ -3783,27 +4337,27 @@
         <v>7</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="7">
-        <v>73</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>130</v>
+      <c r="B55" s="8">
+        <v>75</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -3815,59 +4369,55 @@
         <v>7</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>391</v>
+        <v>135</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="8">
-        <v>74</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="B56" s="98">
+        <v>76</v>
+      </c>
+      <c r="C56" s="99" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>133</v>
+      <c r="F56" s="25"/>
+      <c r="G56" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="H56" s="88" t="s">
+        <v>375</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>19</v>
@@ -3879,53 +4429,59 @@
         <v>7</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="I57" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="8">
+        <v>78</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="59">
-        <v>76</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="H58" s="51" t="s">
-        <v>377</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J58" s="58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="8">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>19</v>
@@ -3937,27 +4493,27 @@
         <v>7</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
@@ -3969,45 +4525,45 @@
         <v>7</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="8">
-        <v>82</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>143</v>
+      <c r="G61" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>23</v>
@@ -4018,25 +4574,25 @@
         <v>5</v>
       </c>
       <c r="B62" s="8">
-        <v>83</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>71</v>
+      <c r="G62" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>27</v>
@@ -4050,31 +4606,31 @@
         <v>5</v>
       </c>
       <c r="B63" s="8">
-        <v>84</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E63" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>209</v>
+      <c r="G63" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -4082,25 +4638,25 @@
         <v>5</v>
       </c>
       <c r="B64" s="8">
-        <v>85</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>211</v>
+      <c r="G64" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>27</v>
@@ -4114,25 +4670,25 @@
         <v>5</v>
       </c>
       <c r="B65" s="8">
-        <v>86</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="44" t="s">
+      <c r="E65" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="H65" s="30" t="s">
-        <v>215</v>
+      <c r="G65" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>27</v>
@@ -4146,25 +4702,25 @@
         <v>5</v>
       </c>
       <c r="B66" s="8">
-        <v>87</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H66" s="30" t="s">
-        <v>213</v>
+      <c r="G66" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>27</v>
@@ -4173,36 +4729,36 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="8">
-        <v>88</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="44" t="s">
+      <c r="E67" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>211</v>
+      <c r="G67" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>389</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -4210,25 +4766,25 @@
         <v>5</v>
       </c>
       <c r="B68" s="8">
-        <v>89</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="44" t="s">
+      <c r="E68" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>211</v>
+      <c r="G68" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>27</v>
@@ -4237,36 +4793,36 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="8">
-        <v>92</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="44" t="s">
+      <c r="E69" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="44" t="s">
+      <c r="F69" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="H69" s="44" t="s">
-        <v>392</v>
+      <c r="G69" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -4274,25 +4830,25 @@
         <v>5</v>
       </c>
       <c r="B70" s="8">
-        <v>93</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>109</v>
+      <c r="G70" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>27</v>
@@ -4306,25 +4862,25 @@
         <v>5</v>
       </c>
       <c r="B71" s="8">
-        <v>95</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D71" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="44" t="s">
+      <c r="E71" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>211</v>
+      <c r="G71" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>27</v>
@@ -4338,24 +4894,24 @@
         <v>5</v>
       </c>
       <c r="B72" s="8">
-        <v>96</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="44" t="s">
+      <c r="E72" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="44" t="s">
+      <c r="F72" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="30" t="s">
+      <c r="G72" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H72" s="30" t="s">
+      <c r="H72" s="28" t="s">
         <v>215</v>
       </c>
       <c r="I72" s="7" t="s">
@@ -4370,24 +4926,24 @@
         <v>5</v>
       </c>
       <c r="B73" s="8">
-        <v>97</v>
-      </c>
-      <c r="C73" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D73" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="44" t="s">
+      <c r="E73" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="30" t="s">
+      <c r="G73" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H73" s="28" t="s">
         <v>213</v>
       </c>
       <c r="I73" s="7" t="s">
@@ -4402,25 +4958,25 @@
         <v>5</v>
       </c>
       <c r="B74" s="8">
-        <v>98</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="44" t="s">
+      <c r="E74" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="44" t="s">
+      <c r="F74" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>215</v>
+      <c r="G74" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>27</v>
@@ -4434,24 +4990,24 @@
         <v>5</v>
       </c>
       <c r="B75" s="8">
-        <v>99</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="30" t="s">
+      <c r="G75" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="H75" s="30" t="s">
+      <c r="H75" s="28" t="s">
         <v>213</v>
       </c>
       <c r="I75" s="7" t="s">
@@ -4461,100 +5017,30 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="8">
-        <v>102</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="8">
-        <v>103</v>
-      </c>
-      <c r="C77" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H77" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1046727" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1046727" t="s">
+    <row r="1046725" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1046725" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I77" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="4 - O conceito fonte é mais restrito e tem mais significado específico que o conceito/termo alvo."/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="I1:I75" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}"/>
   <mergeCells count="5">
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J77" xr:uid="{2D356DEF-80E0-2B40-86EB-DB4F3109A82E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J75" xr:uid="{2D356DEF-80E0-2B40-86EB-DB4F3109A82E}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J13:J14 J16:J24 J26:J57 J59:J76 J1:J9" xr:uid="{A9A22B78-01F6-BA48-80DF-F09016E67FF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J13:J14 J24:J55 J57:J74 J1:J9 J16:J23" xr:uid="{A9A22B78-01F6-BA48-80DF-F09016E67FF1}">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4566,8 +5052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72AFE3-1E87-CF46-B503-516FB4ECE6EB}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4576,17 +5062,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>379</v>
+      <c r="D2" s="42" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -4597,10 +5083,10 @@
         <v>166</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4611,7 +5097,7 @@
         <v>167</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D4" s="17"/>
     </row>
@@ -4623,10 +5109,10 @@
         <v>168</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4634,10 +5120,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -4649,7 +5135,7 @@
         <v>169</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -4661,7 +5147,7 @@
         <v>170</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -4673,7 +5159,7 @@
         <v>171</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -4685,7 +5171,7 @@
         <v>172</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -4697,7 +5183,7 @@
         <v>173</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -4709,10 +5195,10 @@
         <v>174</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4723,222 +5209,255 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D28A4-C67E-C24D-A558-9A5B7983454D}">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="A11" sqref="A3:E11"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="64"/>
+    <col min="2" max="2" width="20.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="36" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="33" t="s">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="72">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="E4" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="A5" s="82">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="83">
+        <v>19</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="82">
+        <v>20</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A8" s="84">
+        <v>26</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="82">
+        <v>27</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="F4" s="72">
+      <c r="E9" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>16</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="36">
+    <row r="10" spans="1:6" ht="76" x14ac:dyDescent="0.2">
+      <c r="A10" s="85">
+        <v>36</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="82">
+        <v>38</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="82">
+        <v>69</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="38">
+        <v>774893001</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" s="82">
+        <v>101</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="34">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
-        <v>19</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="38">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
-        <v>20</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="38">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
-        <v>27</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
-        <v>38</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
-        <v>69</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="42">
-        <v>774893001</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
-        <v>101</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
-      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="89"/>
+      <c r="D20" s="39"/>
+      <c r="F20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4946,186 +5465,229 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25F7119-B34B-F44D-9317-E555B8512172}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>223</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
         <v>227</v>
       </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
         <v>233</v>
       </c>
-      <c r="C8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5135,882 +5697,1122 @@
       <c r="C16" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" t="s">
         <v>242</v>
       </c>
-      <c r="C17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" t="s">
         <v>246</v>
       </c>
-      <c r="C20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" t="s">
         <v>248</v>
       </c>
-      <c r="C21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" t="s">
         <v>252</v>
       </c>
-      <c r="C24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="s">
         <v>257</v>
       </c>
-      <c r="C28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" t="s">
         <v>267</v>
       </c>
-      <c r="C37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" t="s">
         <v>270</v>
       </c>
-      <c r="C39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
         <v>275</v>
       </c>
-      <c r="C43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C45" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C46" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" t="s">
         <v>282</v>
       </c>
-      <c r="C49" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" t="s">
         <v>284</v>
       </c>
-      <c r="C50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" t="s">
         <v>286</v>
       </c>
-      <c r="C51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" t="s">
         <v>289</v>
       </c>
-      <c r="C53" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" t="s">
         <v>291</v>
       </c>
-      <c r="C54" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" t="s">
         <v>293</v>
       </c>
-      <c r="C55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C56" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C57" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C58" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C59" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C60" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C62" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C65" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C68" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C69" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" t="s">
         <v>309</v>
       </c>
-      <c r="C70" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C71" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C72" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C75" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C76" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>316</v>
+      </c>
+      <c r="C77" t="s">
         <v>317</v>
       </c>
-      <c r="C77" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>320</v>
+      </c>
+      <c r="C80" t="s">
         <v>321</v>
       </c>
-      <c r="C80" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" t="s">
         <v>323</v>
       </c>
-      <c r="C81" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
         <v>325</v>
       </c>
-      <c r="C82" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C83" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C84" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C85" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C86" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C87" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C89" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C90" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" t="s">
         <v>335</v>
       </c>
-      <c r="C91" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>336</v>
+      </c>
+      <c r="C92" t="s">
         <v>337</v>
       </c>
-      <c r="C92" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C93" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" t="s">
         <v>341</v>
       </c>
-      <c r="C95" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C96" t="s">
         <v>153</v>
@@ -6018,13 +6820,16 @@
       <c r="D96" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C97" t="s">
         <v>154</v>
@@ -6032,13 +6837,16 @@
       <c r="D97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C98" t="s">
         <v>155</v>
@@ -6046,76 +6854,97 @@
       <c r="D98" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C99" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C100" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C101" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" t="s">
         <v>349</v>
       </c>
-      <c r="C102" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C103" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6127,7 +6956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4040E8E-EB16-2240-A9EA-A7E4A1B5F002}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0"/>
+    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6136,19 +6967,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>395</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>398</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>162</v>
@@ -6156,19 +6987,19 @@
     </row>
     <row r="2" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>361</v>
       </c>
       <c r="F2" s="19"/>
     </row>
@@ -6179,10 +7010,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7A8281-D972-9C40-B8BE-DDDC2BD2A354}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6190,100 +7021,105 @@
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="47" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="66">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="48">
         <v>1</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="49">
         <v>10</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="50">
         <f>B3/B8</f>
         <v>0.10989010989010989</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="66">
+      <c r="E3" s="72"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="49">
         <v>30</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="50">
         <f>B4/91</f>
         <v>0.32967032967032966</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="66">
+      <c r="E4" s="72"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="49">
         <v>0</v>
       </c>
-      <c r="C5" s="68">
-        <f t="shared" ref="C5:C7" si="0">B5/91</f>
+      <c r="C5" s="50">
+        <f t="shared" ref="C5:E7" si="0">B5/91</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="66">
+      <c r="E5" s="72"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="48">
         <v>4</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="49">
         <v>33</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="50">
         <f t="shared" si="0"/>
         <v>0.36263736263736263</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
-        <v>5</v>
-      </c>
-      <c r="B7" s="67">
+      <c r="E6" s="72"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="48">
+        <v>5</v>
+      </c>
+      <c r="B7" s="49">
         <v>18</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="50">
         <f t="shared" si="0"/>
         <v>0.19780219780219779</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+      <c r="E7" s="72"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="52">
         <f>SUM(B3:B7)</f>
         <v>91</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B10" s="75">
+        <v>390</v>
+      </c>
+      <c r="B10" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B11">
         <f>B8+12</f>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410B30C-8245-0542-BAAD-A7309444B207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F511C2-8ADF-964A-AAF8-8CC8CE0A3D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="2" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="5" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Statistics" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$I$1:$I$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$1:$K$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="503">
   <si>
     <t>Nome Organização Source</t>
   </si>
@@ -1531,13 +1531,37 @@
   </si>
   <si>
     <t>COVID-19 vaccine PFIZER - COMIRNATY BIVALENT, mRNA</t>
+  </si>
+  <si>
+    <t>10 not in SNOMED</t>
+  </si>
+  <si>
+    <t>duplo -</t>
+  </si>
+  <si>
+    <t>Duplo</t>
+  </si>
+  <si>
+    <t>Product containing Latrodectus mactans antivenom (medicinal product)|</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Measles morbillivirus and Rubella virus antigens (medicinal product)|</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human alphaherpesvirus 3 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>2231000221105</t>
+  </si>
+  <si>
+    <t>11 in SNOMED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1612,12 +1636,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -1651,7 +1669,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1694,8 +1712,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1825,12 +1849,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1921,23 +1997,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1959,10 +2035,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1976,7 +2052,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2008,27 +2084,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2037,38 +2092,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2077,21 +2123,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2101,14 +2140,73 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2425,10 +2523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
-  <dimension ref="A1:IG1046725"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:IG1046723"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="B70" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2461,8 +2560,11 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:241" ht="32" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:241" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2482,7 +2584,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:241" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:241" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2514,7 +2616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:241" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:241" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2543,6 +2645,9 @@
       <c r="J4" s="59" t="s">
         <v>23</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:241" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -2575,8 +2680,16 @@
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:241" ht="51" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <f>K4+1</f>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:241" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2607,271 +2720,278 @@
       <c r="J6" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:241" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <f t="shared" ref="K6:K68" si="0">K5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:241" s="21" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="7">
         <v>10</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="91"/>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="91"/>
-      <c r="BK7" s="91"/>
-      <c r="BL7" s="91"/>
-      <c r="BM7" s="91"/>
-      <c r="BN7" s="91"/>
-      <c r="BO7" s="91"/>
-      <c r="BP7" s="91"/>
-      <c r="BQ7" s="91"/>
-      <c r="BR7" s="91"/>
-      <c r="BS7" s="91"/>
-      <c r="BT7" s="91"/>
-      <c r="BU7" s="91"/>
-      <c r="BV7" s="91"/>
-      <c r="BW7" s="91"/>
-      <c r="BX7" s="91"/>
-      <c r="BY7" s="91"/>
-      <c r="BZ7" s="91"/>
-      <c r="CA7" s="91"/>
-      <c r="CB7" s="91"/>
-      <c r="CC7" s="91"/>
-      <c r="CD7" s="91"/>
-      <c r="CE7" s="91"/>
-      <c r="CF7" s="91"/>
-      <c r="CG7" s="91"/>
-      <c r="CH7" s="91"/>
-      <c r="CI7" s="91"/>
-      <c r="CJ7" s="91"/>
-      <c r="CK7" s="91"/>
-      <c r="CL7" s="91"/>
-      <c r="CM7" s="91"/>
-      <c r="CN7" s="91"/>
-      <c r="CO7" s="91"/>
-      <c r="CP7" s="91"/>
-      <c r="CQ7" s="91"/>
-      <c r="CR7" s="91"/>
-      <c r="CS7" s="91"/>
-      <c r="CT7" s="91"/>
-      <c r="CU7" s="91"/>
-      <c r="CV7" s="91"/>
-      <c r="CW7" s="91"/>
-      <c r="CX7" s="91"/>
-      <c r="CY7" s="91"/>
-      <c r="CZ7" s="91"/>
-      <c r="DA7" s="91"/>
-      <c r="DB7" s="91"/>
-      <c r="DC7" s="91"/>
-      <c r="DD7" s="91"/>
-      <c r="DE7" s="91"/>
-      <c r="DF7" s="91"/>
-      <c r="DG7" s="91"/>
-      <c r="DH7" s="91"/>
-      <c r="DI7" s="91"/>
-      <c r="DJ7" s="91"/>
-      <c r="DK7" s="91"/>
-      <c r="DL7" s="91"/>
-      <c r="DM7" s="91"/>
-      <c r="DN7" s="91"/>
-      <c r="DO7" s="91"/>
-      <c r="DP7" s="91"/>
-      <c r="DQ7" s="91"/>
-      <c r="DR7" s="91"/>
-      <c r="DS7" s="91"/>
-      <c r="DT7" s="91"/>
-      <c r="DU7" s="91"/>
-      <c r="DV7" s="91"/>
-      <c r="DW7" s="91"/>
-      <c r="DX7" s="91"/>
-      <c r="DY7" s="91"/>
-      <c r="DZ7" s="91"/>
-      <c r="EA7" s="91"/>
-      <c r="EB7" s="91"/>
-      <c r="EC7" s="91"/>
-      <c r="ED7" s="91"/>
-      <c r="EE7" s="91"/>
-      <c r="EF7" s="91"/>
-      <c r="EG7" s="91"/>
-      <c r="EH7" s="91"/>
-      <c r="EI7" s="91"/>
-      <c r="EJ7" s="91"/>
-      <c r="EK7" s="91"/>
-      <c r="EL7" s="91"/>
-      <c r="EM7" s="91"/>
-      <c r="EN7" s="91"/>
-      <c r="EO7" s="91"/>
-      <c r="EP7" s="91"/>
-      <c r="EQ7" s="91"/>
-      <c r="ER7" s="91"/>
-      <c r="ES7" s="91"/>
-      <c r="ET7" s="91"/>
-      <c r="EU7" s="91"/>
-      <c r="EV7" s="91"/>
-      <c r="EW7" s="91"/>
-      <c r="EX7" s="91"/>
-      <c r="EY7" s="91"/>
-      <c r="EZ7" s="91"/>
-      <c r="FA7" s="91"/>
-      <c r="FB7" s="91"/>
-      <c r="FC7" s="91"/>
-      <c r="FD7" s="91"/>
-      <c r="FE7" s="91"/>
-      <c r="FF7" s="91"/>
-      <c r="FG7" s="91"/>
-      <c r="FH7" s="91"/>
-      <c r="FI7" s="91"/>
-      <c r="FJ7" s="91"/>
-      <c r="FK7" s="91"/>
-      <c r="FL7" s="91"/>
-      <c r="FM7" s="91"/>
-      <c r="FN7" s="91"/>
-      <c r="FO7" s="91"/>
-      <c r="FP7" s="91"/>
-      <c r="FQ7" s="91"/>
-      <c r="FR7" s="91"/>
-      <c r="FS7" s="91"/>
-      <c r="FT7" s="91"/>
-      <c r="FU7" s="91"/>
-      <c r="FV7" s="91"/>
-      <c r="FW7" s="91"/>
-      <c r="FX7" s="91"/>
-      <c r="FY7" s="91"/>
-      <c r="FZ7" s="91"/>
-      <c r="GA7" s="91"/>
-      <c r="GB7" s="91"/>
-      <c r="GC7" s="91"/>
-      <c r="GD7" s="91"/>
-      <c r="GE7" s="91"/>
-      <c r="GF7" s="91"/>
-      <c r="GG7" s="91"/>
-      <c r="GH7" s="91"/>
-      <c r="GI7" s="91"/>
-      <c r="GJ7" s="91"/>
-      <c r="GK7" s="91"/>
-      <c r="GL7" s="91"/>
-      <c r="GM7" s="91"/>
-      <c r="GN7" s="91"/>
-      <c r="GO7" s="91"/>
-      <c r="GP7" s="91"/>
-      <c r="GQ7" s="91"/>
-      <c r="GR7" s="91"/>
-      <c r="GS7" s="91"/>
-      <c r="GT7" s="91"/>
-      <c r="GU7" s="91"/>
-      <c r="GV7" s="91"/>
-      <c r="GW7" s="91"/>
-      <c r="GX7" s="91"/>
-      <c r="GY7" s="91"/>
-      <c r="GZ7" s="91"/>
-      <c r="HA7" s="91"/>
-      <c r="HB7" s="91"/>
-      <c r="HC7" s="91"/>
-      <c r="HD7" s="91"/>
-      <c r="HE7" s="91"/>
-      <c r="HF7" s="91"/>
-      <c r="HG7" s="91"/>
-      <c r="HH7" s="91"/>
-      <c r="HI7" s="91"/>
-      <c r="HJ7" s="91"/>
-      <c r="HK7" s="91"/>
-      <c r="HL7" s="91"/>
-      <c r="HM7" s="91"/>
-      <c r="HN7" s="91"/>
-      <c r="HO7" s="91"/>
-      <c r="HP7" s="91"/>
-      <c r="HQ7" s="91"/>
-      <c r="HR7" s="91"/>
-      <c r="HS7" s="91"/>
-      <c r="HT7" s="91"/>
-      <c r="HU7" s="91"/>
-      <c r="HV7" s="91"/>
-      <c r="HW7" s="91"/>
-      <c r="HX7" s="91"/>
-      <c r="HY7" s="91"/>
-      <c r="HZ7" s="91"/>
-      <c r="IA7" s="91"/>
-      <c r="IB7" s="91"/>
-      <c r="IC7" s="91"/>
-      <c r="ID7" s="91"/>
-      <c r="IE7" s="91"/>
-      <c r="IF7" s="91"/>
-      <c r="IG7" s="91"/>
-    </row>
-    <row r="8" spans="1:241" ht="51" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="FT7"/>
+      <c r="FU7"/>
+      <c r="FV7"/>
+      <c r="FW7"/>
+      <c r="FX7"/>
+      <c r="FY7"/>
+      <c r="FZ7"/>
+      <c r="GA7"/>
+      <c r="GB7"/>
+      <c r="GC7"/>
+      <c r="GD7"/>
+      <c r="GE7"/>
+      <c r="GF7"/>
+      <c r="GG7"/>
+      <c r="GH7"/>
+      <c r="GI7"/>
+      <c r="GJ7"/>
+      <c r="GK7"/>
+      <c r="GL7"/>
+      <c r="GM7"/>
+      <c r="GN7"/>
+      <c r="GO7"/>
+      <c r="GP7"/>
+      <c r="GQ7"/>
+      <c r="GR7"/>
+      <c r="GS7"/>
+      <c r="GT7"/>
+      <c r="GU7"/>
+      <c r="GV7"/>
+      <c r="GW7"/>
+      <c r="GX7"/>
+      <c r="GY7"/>
+      <c r="GZ7"/>
+      <c r="HA7"/>
+      <c r="HB7"/>
+      <c r="HC7"/>
+      <c r="HD7"/>
+      <c r="HE7"/>
+      <c r="HF7"/>
+      <c r="HG7"/>
+      <c r="HH7"/>
+      <c r="HI7"/>
+      <c r="HJ7"/>
+      <c r="HK7"/>
+      <c r="HL7"/>
+      <c r="HM7"/>
+      <c r="HN7"/>
+      <c r="HO7"/>
+      <c r="HP7"/>
+      <c r="HQ7"/>
+      <c r="HR7"/>
+      <c r="HS7"/>
+      <c r="HT7"/>
+      <c r="HU7"/>
+      <c r="HV7"/>
+      <c r="HW7"/>
+      <c r="HX7"/>
+      <c r="HY7"/>
+      <c r="HZ7"/>
+      <c r="IA7"/>
+      <c r="IB7"/>
+      <c r="IC7"/>
+      <c r="ID7"/>
+      <c r="IE7"/>
+      <c r="IF7"/>
+      <c r="IG7"/>
+    </row>
+    <row r="8" spans="1:241" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -2902,8 +3022,12 @@
       <c r="J8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:241" ht="51" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:241" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -2934,24 +3058,32 @@
       <c r="J9" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:241" ht="51" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:241" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="7">
         <v>15</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="90" t="s">
+      <c r="D10" s="80"/>
+      <c r="E10" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="90" t="s">
+      <c r="H10" s="9" t="s">
         <v>178</v>
       </c>
       <c r="I10" s="61" t="s">
@@ -2960,8 +3092,12 @@
       <c r="J10" s="44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:241" ht="51" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:241" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -2992,200 +3128,238 @@
       <c r="J11" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:241" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="20">
-        <v>18</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93" t="s">
+      <c r="B12" s="8">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="94">
-        <v>871726005</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>181</v>
+      <c r="G12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <f>L5+1</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:241" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="66">
+        <v>22</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>45</v>
+      <c r="G13" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:241" ht="102" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f>L12+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:241" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="20">
+        <v>23</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:241" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="73" t="s">
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:241" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20">
+        <v>25</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="G16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:241" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="J16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B17" s="8">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:241" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8">
-        <v>24</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="20">
-        <v>25</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>19</v>
@@ -3197,10 +3371,10 @@
         <v>7</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>22</v>
@@ -3208,80 +3382,92 @@
       <c r="J18" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="8">
-        <v>29</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>60</v>
+      <c r="G19" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="8">
-        <v>30</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>206</v>
+      <c r="G20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>19</v>
@@ -3293,27 +3479,31 @@
         <v>7</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>19</v>
@@ -3325,91 +3515,103 @@
         <v>7</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>165</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="66">
+        <v>37</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="8">
-        <v>35</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B24" s="8">
+        <v>39</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="73">
-        <v>37</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="G24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>19</v>
@@ -3420,28 +3622,32 @@
       <c r="F25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="G25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>19</v>
@@ -3452,11 +3658,11 @@
       <c r="F26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>78</v>
+      <c r="G26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>22</v>
@@ -3464,20 +3670,22 @@
       <c r="J26" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
@@ -3485,29 +3693,35 @@
         <v>7</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
@@ -3518,24 +3732,28 @@
         <v>83</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>387</v>
+        <v>84</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>19</v>
@@ -3546,28 +3764,32 @@
       <c r="F29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>84</v>
+      <c r="G29" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
@@ -3578,11 +3800,11 @@
       <c r="F30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>164</v>
+      <c r="G30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>165</v>
@@ -3590,95 +3812,107 @@
       <c r="J30" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>88</v>
+      <c r="G31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>91</v>
+      <c r="G32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="8">
-        <v>47</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="20">
+        <v>51</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>94</v>
+      <c r="G33" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>27</v>
@@ -3686,31 +3920,35 @@
       <c r="J33" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="20">
-        <v>51</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="B34" s="8">
+        <v>55</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>376</v>
+      <c r="G34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>27</v>
@@ -3718,80 +3956,92 @@
       <c r="J34" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" t="s">
-        <v>165</v>
+        <v>94</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
@@ -3802,28 +4052,32 @@
       <c r="F37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>94</v>
+      <c r="G37" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
@@ -3834,11 +4088,11 @@
       <c r="F38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>103</v>
+      <c r="G38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>22</v>
@@ -3846,16 +4100,20 @@
       <c r="J38" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>19</v>
@@ -3867,27 +4125,31 @@
         <v>7</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>19</v>
@@ -3899,27 +4161,31 @@
         <v>7</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>19</v>
@@ -3931,27 +4197,31 @@
         <v>7</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>19</v>
@@ -3974,16 +4244,20 @@
       <c r="J42" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>19</v>
@@ -3995,10 +4269,10 @@
         <v>7</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>27</v>
@@ -4006,16 +4280,20 @@
       <c r="J43" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
@@ -4027,10 +4305,10 @@
         <v>7</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>27</v>
@@ -4038,181 +4316,205 @@
       <c r="J44" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="8">
-        <v>65</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="20">
+        <v>66</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>88</v>
+      <c r="G45" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="20">
-        <v>66</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="20" t="s">
+      <c r="B46" s="8">
+        <v>67</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>208</v>
+      <c r="G46" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="67" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="8">
-        <v>67</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="B47" s="90">
+        <v>70</v>
+      </c>
+      <c r="C47" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="92" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="8">
-        <v>68</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K47">
+        <f>K46+1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="89"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="67">
-        <v>70</v>
-      </c>
-      <c r="C49" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="65" t="s">
+      <c r="B49" s="8">
+        <v>71</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>123</v>
+      <c r="G49" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="66"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="70"/>
+        <v>23</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="8">
+        <v>72</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>22</v>
@@ -4220,16 +4522,20 @@
       <c r="J50" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="8">
-        <v>71</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>126</v>
+      <c r="B51" s="7">
+        <v>73</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>19</v>
@@ -4240,28 +4546,32 @@
       <c r="F51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>128</v>
+      <c r="G51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>19</v>
@@ -4273,27 +4583,31 @@
         <v>7</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="7">
-        <v>73</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>130</v>
+      <c r="B53" s="8">
+        <v>75</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>19</v>
@@ -4305,59 +4619,63 @@
         <v>7</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>388</v>
+        <v>135</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="8">
-        <v>74</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="B54" s="85">
+        <v>76</v>
+      </c>
+      <c r="C54" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>133</v>
+      <c r="F54" s="25"/>
+      <c r="G54" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>375</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J54" s="44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -4369,55 +4687,67 @@
         <v>7</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="98">
-        <v>76</v>
-      </c>
-      <c r="C56" s="99" t="s">
-        <v>317</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25" t="s">
+      <c r="B56" s="8">
+        <v>78</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="H56" s="88" t="s">
-        <v>375</v>
+      <c r="F56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J56" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="8">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>19</v>
@@ -4429,27 +4759,31 @@
         <v>7</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>19</v>
@@ -4461,74 +4795,82 @@
         <v>7</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="8">
-        <v>82</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>143</v>
+      <c r="G59" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="8">
-        <v>83</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>71</v>
+      <c r="G60" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>27</v>
@@ -4536,16 +4878,20 @@
       <c r="J60" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D61" s="40" t="s">
         <v>19</v>
@@ -4557,27 +4903,31 @@
         <v>7</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D62" s="40" t="s">
         <v>19</v>
@@ -4589,10 +4939,10 @@
         <v>7</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>27</v>
@@ -4600,16 +4950,20 @@
       <c r="J62" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D63" s="40" t="s">
         <v>19</v>
@@ -4621,10 +4975,10 @@
         <v>7</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>27</v>
@@ -4632,16 +4986,20 @@
       <c r="J63" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D64" s="40" t="s">
         <v>19</v>
@@ -4653,10 +5011,10 @@
         <v>7</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>27</v>
@@ -4664,16 +5022,20 @@
       <c r="J64" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D65" s="40" t="s">
         <v>19</v>
@@ -4684,43 +5046,47 @@
       <c r="F65" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>211</v>
+      <c r="G65" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>389</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="8">
-        <v>89</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>211</v>
+      <c r="G66" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>27</v>
@@ -4728,16 +5094,20 @@
       <c r="J66" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D67" s="40" t="s">
         <v>19</v>
@@ -4748,43 +5118,47 @@
       <c r="F67" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>389</v>
+      <c r="G67" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="8">
-        <v>93</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>109</v>
+      <c r="G68" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>27</v>
@@ -4792,16 +5166,20 @@
       <c r="J68" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D69" s="40" t="s">
         <v>19</v>
@@ -4813,10 +5191,10 @@
         <v>7</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>27</v>
@@ -4824,16 +5202,20 @@
       <c r="J69" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <f t="shared" ref="K69:K73" si="1">K68+1</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D70" s="40" t="s">
         <v>19</v>
@@ -4856,16 +5238,20 @@
       <c r="J70" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D71" s="40" t="s">
         <v>19</v>
@@ -4888,16 +5274,20 @@
       <c r="J71" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D72" s="40" t="s">
         <v>19</v>
@@ -4909,10 +5299,10 @@
         <v>7</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>27</v>
@@ -4920,16 +5310,20 @@
       <c r="J72" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>19</v>
@@ -4952,95 +5346,47 @@
       <c r="J73" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="8">
-        <v>102</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="8">
-        <v>103</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1046725" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1046725" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f ca="1">COUNTIF(I:I,"4 - O conceito fonte é mais restrito e tem mais significado específico que o conceito/termo alvo.")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046723" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1046723" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I75" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}"/>
+  <autoFilter ref="A1:K73" xr:uid="{F248D098-89B3-CC41-B3AD-EB932F8A3134}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="4 - O conceito fonte é mais restrito e tem mais significado específico que o conceito/termo alvo."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J75" xr:uid="{2D356DEF-80E0-2B40-86EB-DB4F3109A82E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J73" xr:uid="{2D356DEF-80E0-2B40-86EB-DB4F3109A82E}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J13:J14 J24:J55 J57:J74 J1:J9 J16:J23" xr:uid="{A9A22B78-01F6-BA48-80DF-F09016E67FF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:J13 J55:J72 J1:J9 J15:J53" xr:uid="{A9A22B78-01F6-BA48-80DF-F09016E67FF1}">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5050,10 +5396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72AFE3-1E87-CF46-B503-516FB4ECE6EB}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+    <sheetView topLeftCell="A8" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5061,7 +5407,7 @@
     <col min="2" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>361</v>
       </c>
@@ -5075,7 +5421,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>3</v>
       </c>
@@ -5088,8 +5434,11 @@
       <c r="D3" s="17" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>4</v>
       </c>
@@ -5100,8 +5449,12 @@
         <v>362</v>
       </c>
       <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f>E3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>6</v>
       </c>
@@ -5114,8 +5467,12 @@
       <c r="D5" s="17" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" ref="E5:E12" si="0">E4+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>7</v>
       </c>
@@ -5126,8 +5483,12 @@
         <v>383</v>
       </c>
       <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>8</v>
       </c>
@@ -5138,8 +5499,12 @@
         <v>365</v>
       </c>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" s="12" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>11</v>
       </c>
@@ -5150,8 +5515,12 @@
         <v>366</v>
       </c>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>12</v>
       </c>
@@ -5162,8 +5531,12 @@
         <v>397</v>
       </c>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>31</v>
       </c>
@@ -5174,8 +5547,12 @@
         <v>367</v>
       </c>
       <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>32</v>
       </c>
@@ -5186,8 +5563,12 @@
         <v>369</v>
       </c>
       <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>100</v>
       </c>
@@ -5199,6 +5580,10 @@
       </c>
       <c r="D12" s="7" t="s">
         <v>371</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5209,31 +5594,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D28A4-C67E-C24D-A558-9A5B7983454D}">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E13"/>
+    <sheetView topLeftCell="B14" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="64"/>
     <col min="2" max="2" width="20.1640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="86" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="76" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="36" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>361</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="77" t="s">
         <v>175</v>
       </c>
       <c r="D3" s="37" t="s">
@@ -5245,8 +5633,20 @@
       <c r="F3" s="31" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="H3" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="226" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>2</v>
       </c>
@@ -5265,15 +5665,31 @@
       <c r="F4" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.2">
-      <c r="A5" s="82">
+      <c r="G4">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="99">
+        <v>777252008</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
         <v>16</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="78" t="s">
         <v>179</v>
       </c>
       <c r="D5" s="38" t="s">
@@ -5285,139 +5701,248 @@
       <c r="F5" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.2">
-      <c r="A6" s="83">
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="98" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="99">
+        <v>871726005</v>
+      </c>
+      <c r="J5" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="169" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>18</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="38">
+        <v>871726005</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="34">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G14" si="0">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73">
         <v>19</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B7" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C7" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D7" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F7" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="82">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="99">
+        <v>122450004</v>
+      </c>
+      <c r="J7" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
         <v>20</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B8" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C8" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E8" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F8" s="34">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A8" s="84">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" s="99">
+        <v>422303009</v>
+      </c>
+      <c r="J8" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
         <v>26</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B9" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C9" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D9" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E9" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F9" s="67">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="82">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>422</v>
+      </c>
+      <c r="I9" s="99">
+        <v>5720001</v>
+      </c>
+      <c r="J9" s="100" t="s">
+        <v>498</v>
+      </c>
+      <c r="K9" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
         <v>27</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B10" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C10" s="78" t="s">
         <v>386</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E10" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F10" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="76" x14ac:dyDescent="0.2">
-      <c r="A10" s="85">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>501</v>
+      </c>
+      <c r="J10" s="100" t="s">
+        <v>499</v>
+      </c>
+      <c r="K10" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
         <v>36</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B11" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C11" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D11" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E11" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F11" s="62">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="82">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H11" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="99">
+        <v>774893001</v>
+      </c>
+      <c r="J11" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72">
         <v>38</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B12" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C12" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>354</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="82">
-        <v>69</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="38">
-        <v>774893001</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>189</v>
@@ -5425,39 +5950,113 @@
       <c r="F12" s="34">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="82">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H12" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="99">
+        <v>774893001</v>
+      </c>
+      <c r="J12" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
+        <v>69</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="38">
+        <v>774893001</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="34">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="98" t="s">
+        <v>468</v>
+      </c>
+      <c r="I13" s="99">
+        <v>871919004</v>
+      </c>
+      <c r="J13" s="100" t="s">
+        <v>500</v>
+      </c>
+      <c r="K13" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="181" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
         <v>101</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B14" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C14" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D14" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E14" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F14" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="89"/>
-      <c r="D20" s="39"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="79"/>
+      <c r="D21" s="39"/>
+      <c r="F21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5468,7 +6067,7 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7010,10 +7609,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7A8281-D972-9C40-B8BE-DDDC2BD2A354}">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7021,7 +7620,7 @@
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
         <v>379</v>
       </c>
@@ -7032,7 +7631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="48">
         <v>1</v>
       </c>
@@ -7041,24 +7640,30 @@
       </c>
       <c r="C3" s="50">
         <f>B3/B8</f>
-        <v>0.10989010989010989</v>
-      </c>
-      <c r="E3" s="72"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
         <v>2</v>
       </c>
       <c r="B4" s="49">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="50">
         <f>B4/91</f>
-        <v>0.32967032967032966</v>
-      </c>
-      <c r="E4" s="72"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="48">
         <v>3</v>
       </c>
@@ -7066,64 +7671,124 @@
         <v>0</v>
       </c>
       <c r="C5" s="50">
-        <f t="shared" ref="C5:E7" si="0">B5/91</f>
+        <f t="shared" ref="C5:C7" si="0">B5/91</f>
         <v>0</v>
       </c>
-      <c r="E5" s="72"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="65"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="48">
         <v>4</v>
       </c>
       <c r="B6" s="49">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="50">
         <f t="shared" si="0"/>
-        <v>0.36263736263736263</v>
-      </c>
-      <c r="E6" s="72"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.34065934065934067</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
         <v>5</v>
       </c>
       <c r="B7" s="49">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="50">
         <f t="shared" si="0"/>
-        <v>0.19780219780219779</v>
-      </c>
-      <c r="E7" s="72"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D3:D6)</f>
+        <v>70</v>
+      </c>
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="52">
         <f>SUM(B3:B7)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B10" s="108">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>40+33</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>390</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B11" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>396</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f>B8+12</f>
-        <v>103</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>90+21</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>102-13</f>
+        <v>89</v>
+      </c>
+      <c r="G23">
+        <f>103-13</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiogico-sct_eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F511C2-8ADF-964A-AAF8-8CC8CE0A3D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C87006-0624-2442-B8D9-AE1A07A55E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="5" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="17860" activeTab="1" xr2:uid="{F59DAF0E-B1FE-DC47-A5F4-187CB422FD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -1906,7 +1906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2149,6 +2149,40 @@
     <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2169,44 +2203,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4394,19 +4390,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="67" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="90">
+      <c r="B47" s="102">
         <v>70</v>
       </c>
-      <c r="C47" s="90" t="s">
+      <c r="C47" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="88" t="s">
+      <c r="D47" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="92" t="s">
+      <c r="E47" s="104" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="7" t="s">
@@ -4430,11 +4426,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="89"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="93"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="7" t="s">
         <v>7</v>
       </c>
@@ -5398,7 +5394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72AFE3-1E87-CF46-B503-516FB4ECE6EB}">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
@@ -5596,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D28A4-C67E-C24D-A558-9A5B7983454D}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:G14"/>
     </sheetView>
   </sheetViews>
@@ -5633,20 +5629,20 @@
       <c r="F3" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="90" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="226" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>2</v>
       </c>
@@ -5669,20 +5665,20 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="92">
         <v>777252008</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="101">
+      <c r="K4" s="94">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="106" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72">
         <v>16</v>
       </c>
@@ -5705,16 +5701,16 @@
         <f>G4+1</f>
         <v>2</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="91" t="s">
         <v>415</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="92">
         <v>871726005</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="K5" s="101">
+      <c r="K5" s="94">
         <v>4</v>
       </c>
     </row>
@@ -5728,7 +5724,7 @@
       <c r="D6" s="38">
         <v>871726005</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="97" t="s">
         <v>181</v>
       </c>
       <c r="F6" s="34">
@@ -5738,16 +5734,16 @@
         <f t="shared" ref="G6:G14" si="0">G5+1</f>
         <v>3</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="101">
+      <c r="K6" s="94">
         <v>3</v>
       </c>
     </row>
@@ -5774,16 +5770,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="99">
+      <c r="I7" s="92">
         <v>122450004</v>
       </c>
-      <c r="J7" s="100" t="s">
+      <c r="J7" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="94">
         <v>4</v>
       </c>
     </row>
@@ -5810,16 +5806,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="91" t="s">
         <v>418</v>
       </c>
-      <c r="I8" s="99">
+      <c r="I8" s="92">
         <v>422303009</v>
       </c>
-      <c r="J8" s="100" t="s">
+      <c r="J8" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="94">
         <v>1</v>
       </c>
     </row>
@@ -5846,16 +5842,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="91" t="s">
         <v>422</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="92">
         <v>5720001</v>
       </c>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="93" t="s">
         <v>498</v>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="94">
         <v>1</v>
       </c>
     </row>
@@ -5882,20 +5878,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="91" t="s">
         <v>431</v>
       </c>
-      <c r="I10" s="102" t="s">
+      <c r="I10" s="95" t="s">
         <v>501</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="93" t="s">
         <v>499</v>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="94">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <v>36</v>
       </c>
@@ -5918,20 +5914,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H11" s="98" t="s">
+      <c r="H11" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="I11" s="99">
+      <c r="I11" s="92">
         <v>774893001</v>
       </c>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="101">
+      <c r="K11" s="94">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72">
         <v>38</v>
       </c>
@@ -5954,20 +5950,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="I12" s="99">
+      <c r="I12" s="92">
         <v>774893001</v>
       </c>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="K12" s="101">
+      <c r="K12" s="94">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
         <v>69</v>
       </c>
@@ -5990,20 +5986,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="91" t="s">
         <v>468</v>
       </c>
-      <c r="I13" s="99">
+      <c r="I13" s="92">
         <v>871919004</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="93" t="s">
         <v>500</v>
       </c>
-      <c r="K13" s="101">
+      <c r="K13" s="94">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="181" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72">
         <v>101</v>
       </c>
@@ -6026,28 +6022,28 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H14" s="98" t="s">
+      <c r="H14" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="I14" s="99" t="s">
+      <c r="I14" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="94">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="79"/>
@@ -7611,7 +7607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7A8281-D972-9C40-B8BE-DDDC2BD2A354}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="321" zoomScaleNormal="321" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
@@ -7722,15 +7718,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>497</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="57">
         <v>1</v>
       </c>
       <c r="G10">
